--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>チーム9 : 3Dゲームのガントチャート</t>
     <phoneticPr fontId="1"/>
@@ -208,6 +208,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ko</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1851,7 +1855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2060,6 +2064,54 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2096,6 +2148,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2135,71 +2196,20 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2484,7 +2494,7 @@
   <dimension ref="B1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2498,101 +2508,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="91"/>
     </row>
     <row r="2" spans="2:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="76"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="94"/>
     </row>
     <row r="3" spans="2:17" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="81"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="97"/>
     </row>
     <row r="4" spans="2:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
     </row>
     <row r="5" spans="2:17" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="114"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="116"/>
     </row>
     <row r="6" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="85" t="s">
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="94" t="s">
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="93"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="112"/>
     </row>
     <row r="7" spans="2:17" ht="24.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="82"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="90"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
@@ -2619,11 +2629,11 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
@@ -2637,11 +2647,11 @@
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="47">
         <v>44852</v>
       </c>
@@ -2654,7 +2664,7 @@
       <c r="H9" s="36"/>
       <c r="I9" s="37"/>
       <c r="J9" s="69"/>
-      <c r="K9" s="55"/>
+      <c r="K9" s="117"/>
       <c r="L9" s="27"/>
       <c r="M9" s="16"/>
       <c r="N9" s="56"/>
@@ -2664,15 +2674,17 @@
       </c>
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="98"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
+      <c r="B10" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="48"/>
       <c r="F10" s="19"/>
       <c r="G10" s="17"/>
       <c r="H10" s="30"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="118"/>
       <c r="K10" s="20"/>
       <c r="L10" s="18"/>
       <c r="M10" s="19"/>
@@ -2683,9 +2695,9 @@
       </c>
     </row>
     <row r="11" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="49"/>
       <c r="F11" s="22"/>
       <c r="G11" s="17"/>
@@ -2702,9 +2714,9 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="104"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="50"/>
       <c r="F12" s="25"/>
       <c r="G12" s="46"/>
@@ -2718,11 +2730,11 @@
       <c r="O12" s="63"/>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="97"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
@@ -2736,11 +2748,11 @@
       <c r="O13" s="14"/>
     </row>
     <row r="14" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
       <c r="E14" s="47">
         <v>44852</v>
       </c>
@@ -2760,9 +2772,9 @@
       <c r="O14" s="65"/>
     </row>
     <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="98"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="48"/>
       <c r="F15" s="19"/>
       <c r="G15" s="17"/>
@@ -2776,9 +2788,9 @@
       <c r="O15" s="59"/>
     </row>
     <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="101"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="49"/>
       <c r="F16" s="22"/>
       <c r="G16" s="17"/>
@@ -2792,9 +2804,9 @@
       <c r="O16" s="61"/>
     </row>
     <row r="17" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="50"/>
       <c r="F17" s="25"/>
       <c r="G17" s="17"/>
@@ -2808,11 +2820,11 @@
       <c r="O17" s="63"/>
     </row>
     <row r="18" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="5"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
@@ -2826,9 +2838,9 @@
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="2:15" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="70"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="72"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
       <c r="E19" s="51"/>
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
@@ -2842,9 +2854,9 @@
       <c r="O19" s="65"/>
     </row>
     <row r="20" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
       <c r="E20" s="48"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
@@ -2858,9 +2870,9 @@
       <c r="O20" s="59"/>
     </row>
     <row r="21" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="48"/>
       <c r="F21" s="19"/>
       <c r="G21" s="17"/>
@@ -2874,9 +2886,9 @@
       <c r="O21" s="59"/>
     </row>
     <row r="22" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="107"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="109"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="52"/>
       <c r="F22" s="39"/>
       <c r="G22" s="45"/>
@@ -2891,14 +2903,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B1:L3"/>
     <mergeCell ref="B6:D7"/>
@@ -2914,6 +2918,14 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>チーム9 : 3Dゲームのガントチャート</t>
     <phoneticPr fontId="1"/>
@@ -208,10 +208,6 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>ko</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
@@ -2067,6 +2063,102 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2076,6 +2168,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2085,130 +2204,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2494,7 +2490,7 @@
   <dimension ref="B1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2508,45 +2504,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="91"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="2:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="92"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="94"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="2:17" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="95"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="97"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="2:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="70"/>
@@ -2562,47 +2558,47 @@
       <c r="L4" s="70"/>
     </row>
     <row r="5" spans="2:17" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
     </row>
     <row r="6" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="104" t="s">
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="106" t="s">
+      <c r="F6" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="108" t="s">
+      <c r="G6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="113" t="s">
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="112"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="98"/>
     </row>
     <row r="7" spans="2:17" ht="24.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="101"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="109"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
@@ -2629,11 +2625,11 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
@@ -2647,11 +2643,11 @@
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="88"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="47">
         <v>44852</v>
       </c>
@@ -2664,7 +2660,7 @@
       <c r="H9" s="36"/>
       <c r="I9" s="37"/>
       <c r="J9" s="69"/>
-      <c r="K9" s="117"/>
+      <c r="K9" s="71"/>
       <c r="L9" s="27"/>
       <c r="M9" s="16"/>
       <c r="N9" s="56"/>
@@ -2674,11 +2670,9 @@
       </c>
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="105"/>
       <c r="E10" s="48"/>
       <c r="F10" s="19"/>
       <c r="G10" s="17"/>
@@ -2695,9 +2689,9 @@
       </c>
     </row>
     <row r="11" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="108"/>
       <c r="E11" s="49"/>
       <c r="F11" s="22"/>
       <c r="G11" s="17"/>
@@ -2714,9 +2708,9 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="50"/>
       <c r="F12" s="25"/>
       <c r="G12" s="46"/>
@@ -2730,11 +2724,11 @@
       <c r="O12" s="63"/>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
@@ -2748,11 +2742,11 @@
       <c r="O13" s="14"/>
     </row>
     <row r="14" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="47">
         <v>44852</v>
       </c>
@@ -2772,9 +2766,9 @@
       <c r="O14" s="65"/>
     </row>
     <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="48"/>
       <c r="F15" s="19"/>
       <c r="G15" s="17"/>
@@ -2788,9 +2782,9 @@
       <c r="O15" s="59"/>
     </row>
     <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="49"/>
       <c r="F16" s="22"/>
       <c r="G16" s="17"/>
@@ -2804,9 +2798,9 @@
       <c r="O16" s="61"/>
     </row>
     <row r="17" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="82"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="50"/>
       <c r="F17" s="25"/>
       <c r="G17" s="17"/>
@@ -2820,11 +2814,11 @@
       <c r="O17" s="63"/>
     </row>
     <row r="18" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="85"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
       <c r="E18" s="5"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
@@ -2838,9 +2832,9 @@
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="2:15" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="51"/>
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
@@ -2854,9 +2848,9 @@
       <c r="O19" s="65"/>
     </row>
     <row r="20" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="71"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
       <c r="E20" s="48"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
@@ -2870,9 +2864,9 @@
       <c r="O20" s="59"/>
     </row>
     <row r="21" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
       <c r="E21" s="48"/>
       <c r="F21" s="19"/>
       <c r="G21" s="17"/>
@@ -2886,9 +2880,9 @@
       <c r="O21" s="59"/>
     </row>
     <row r="22" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="74"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="117"/>
       <c r="E22" s="52"/>
       <c r="F22" s="39"/>
       <c r="G22" s="45"/>
@@ -2903,6 +2897,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B1:L3"/>
     <mergeCell ref="B6:D7"/>
@@ -2918,14 +2920,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
